--- a/data/egret_CRD.xlsx
+++ b/data/egret_CRD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/egret/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3482D7D3-0E18-544E-9B4B-4801C4E28B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4462F68-833E-A342-971E-E773DEEE4CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-1620" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="36700" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15527" uniqueCount="2692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15548" uniqueCount="2695">
   <si>
     <t>datasetID</t>
   </si>
@@ -8110,6 +8110,15 @@
   </si>
   <si>
     <t>no table or figure provided for this experiment even though they provide specific locations of where the seeds are from</t>
+  </si>
+  <si>
+    <t>not enlgish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not enlgish </t>
+  </si>
+  <si>
+    <t>not enligsh</t>
   </si>
 </sst>
 </file>
@@ -8757,10 +8766,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9631,8 +9636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M189" sqref="M189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9943,7 +9948,9 @@
         <v>156</v>
       </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="8" t="s">
+        <v>2594</v>
+      </c>
       <c r="N6" s="8" t="s">
         <v>157</v>
       </c>
@@ -10421,7 +10428,9 @@
         <v>156</v>
       </c>
       <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>2594</v>
+      </c>
       <c r="N15" s="8" t="s">
         <v>786</v>
       </c>
@@ -11943,7 +11952,9 @@
         <v>156</v>
       </c>
       <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="M44" s="2" t="s">
+        <v>2692</v>
+      </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8" t="s">
@@ -11993,7 +12004,7 @@
         <v>156</v>
       </c>
       <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="M45" s="2"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8" t="s">
@@ -12095,7 +12106,9 @@
         <v>156</v>
       </c>
       <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
+      <c r="M47" s="2" t="s">
+        <v>2692</v>
+      </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8" t="s">
@@ -12199,7 +12212,9 @@
         <v>156</v>
       </c>
       <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="M49" s="2" t="s">
+        <v>2692</v>
+      </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8" t="s">
@@ -16159,6 +16174,9 @@
       <c r="K134" t="s">
         <v>156</v>
       </c>
+      <c r="M134" t="s">
+        <v>2694</v>
+      </c>
       <c r="R134" t="s">
         <v>195</v>
       </c>
@@ -18735,6 +18753,9 @@
       <c r="K189" t="s">
         <v>156</v>
       </c>
+      <c r="M189" t="s">
+        <v>2594</v>
+      </c>
       <c r="P189" t="s">
         <v>760</v>
       </c>
@@ -26484,6 +26505,9 @@
       <c r="K357" t="s">
         <v>156</v>
       </c>
+      <c r="M357" t="s">
+        <v>2692</v>
+      </c>
       <c r="P357" t="s">
         <v>760</v>
       </c>
@@ -26572,6 +26596,9 @@
       <c r="K359" t="s">
         <v>156</v>
       </c>
+      <c r="M359" t="s">
+        <v>2692</v>
+      </c>
       <c r="R359" t="s">
         <v>244</v>
       </c>
@@ -26613,6 +26640,9 @@
       <c r="K360" t="s">
         <v>156</v>
       </c>
+      <c r="M360" t="s">
+        <v>2692</v>
+      </c>
       <c r="R360" t="s">
         <v>195</v>
       </c>
@@ -26780,6 +26810,9 @@
       <c r="K364" t="s">
         <v>156</v>
       </c>
+      <c r="M364" t="s">
+        <v>2692</v>
+      </c>
       <c r="R364" t="s">
         <v>195</v>
       </c>
@@ -26824,6 +26857,9 @@
       <c r="K365" t="s">
         <v>156</v>
       </c>
+      <c r="M365" t="s">
+        <v>2692</v>
+      </c>
       <c r="R365" t="s">
         <v>195</v>
       </c>
@@ -26868,6 +26904,9 @@
       <c r="K366" t="s">
         <v>156</v>
       </c>
+      <c r="M366" t="s">
+        <v>2692</v>
+      </c>
       <c r="R366" t="s">
         <v>195</v>
       </c>
@@ -28835,6 +28874,9 @@
       <c r="K409" t="s">
         <v>156</v>
       </c>
+      <c r="M409" t="s">
+        <v>2692</v>
+      </c>
       <c r="P409" t="s">
         <v>41</v>
       </c>
@@ -28929,6 +28971,9 @@
       <c r="K411" t="s">
         <v>156</v>
       </c>
+      <c r="M411" t="s">
+        <v>2594</v>
+      </c>
       <c r="P411" t="s">
         <v>41</v>
       </c>
@@ -28970,6 +29015,9 @@
       <c r="K412" t="s">
         <v>156</v>
       </c>
+      <c r="M412" t="s">
+        <v>2594</v>
+      </c>
       <c r="P412" t="s">
         <v>2123</v>
       </c>
@@ -29017,6 +29065,9 @@
       <c r="K413" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="M413" s="10" t="s">
+        <v>2594</v>
+      </c>
       <c r="Q413" s="10" t="s">
         <v>2254</v>
       </c>
@@ -29061,6 +29112,9 @@
       <c r="K414" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="M414" s="10" t="s">
+        <v>2594</v>
+      </c>
       <c r="Q414" s="10" t="s">
         <v>2254</v>
       </c>
@@ -29105,6 +29159,9 @@
       <c r="K415" t="s">
         <v>156</v>
       </c>
+      <c r="M415" s="2" t="s">
+        <v>2692</v>
+      </c>
       <c r="R415" t="s">
         <v>301</v>
       </c>
@@ -29146,6 +29203,9 @@
       <c r="K416" t="s">
         <v>156</v>
       </c>
+      <c r="M416" t="s">
+        <v>2594</v>
+      </c>
       <c r="P416" t="s">
         <v>41</v>
       </c>
@@ -29538,6 +29598,9 @@
       </c>
       <c r="K425" s="10" t="s">
         <v>156</v>
+      </c>
+      <c r="M425" s="10" t="s">
+        <v>2693</v>
       </c>
       <c r="Q425" s="10" t="s">
         <v>2254</v>
@@ -32282,8 +32345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E288" sqref="E288"/>
     </sheetView>
   </sheetViews>
